--- a/SpMVC_ShopV1/쇼핑몰 테이블 명세 양식.xlsx
+++ b/SpMVC_ShopV1/쇼핑몰 테이블 명세 양식.xlsx
@@ -180,10 +180,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>PIPRICE</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>P_OPRICE</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -284,6 +280,10 @@
   </si>
   <si>
     <t>PRIMARY KEY</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>P_IPRICE</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1043,7 +1043,7 @@
   <dimension ref="B1:L20"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1697,7 +1697,7 @@
         <v>9</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D1" s="28" t="s">
         <v>14</v>
@@ -1722,7 +1722,7 @@
         <v>10</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D2" s="29"/>
       <c r="E2" s="29"/>
@@ -1736,7 +1736,7 @@
         <v>19</v>
       </c>
       <c r="K2" s="30" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L2" s="31"/>
     </row>
@@ -1745,7 +1745,7 @@
         <v>15</v>
       </c>
       <c r="C3" s="26" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D3" s="26"/>
       <c r="E3" s="26"/>
@@ -1806,10 +1806,10 @@
         <v>37</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G5" s="23" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H5" s="24"/>
       <c r="I5" s="25"/>
@@ -1899,7 +1899,7 @@
         <v>29</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>41</v>
+        <v>71</v>
       </c>
       <c r="F9" s="14" t="s">
         <v>34</v>
@@ -1922,7 +1922,7 @@
         <v>30</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F10" s="4" t="s">
         <v>34</v>
@@ -1945,7 +1945,7 @@
         <v>31</v>
       </c>
       <c r="E11" s="14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F11" s="14" t="s">
         <v>35</v>
@@ -2768,7 +2768,7 @@
         <v>9</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D1" s="28" t="s">
         <v>14</v>
@@ -2793,7 +2793,7 @@
         <v>10</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D2" s="29"/>
       <c r="E2" s="29"/>
@@ -2807,7 +2807,7 @@
         <v>19</v>
       </c>
       <c r="K2" s="30" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L2" s="31"/>
     </row>
@@ -2868,19 +2868,19 @@
         <v>1</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F5" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="G5" s="23" t="s">
         <v>69</v>
-      </c>
-      <c r="G5" s="23" t="s">
-        <v>70</v>
       </c>
       <c r="H5" s="24"/>
       <c r="I5" s="25"/>
@@ -2893,16 +2893,16 @@
         <v>2</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D6" s="14" t="s">
         <v>20</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F6" s="14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G6" s="14" t="s">
         <v>21</v>
@@ -2918,13 +2918,13 @@
         <v>3</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D7" s="14" t="s">
         <v>20</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F7" s="14" t="s">
         <v>32</v>
@@ -2943,16 +2943,16 @@
         <v>4</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D8" s="14" t="s">
         <v>20</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F8" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G8" s="14"/>
       <c r="H8" s="14"/>
@@ -2966,16 +2966,16 @@
         <v>5</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D9" s="14" t="s">
         <v>20</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F9" s="14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G9" s="14"/>
       <c r="H9" s="14"/>
@@ -2989,16 +2989,16 @@
         <v>6</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D10" s="14" t="s">
         <v>20</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F10" s="14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G10" s="14"/>
       <c r="H10" s="14"/>
@@ -3012,16 +3012,16 @@
         <v>7</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D11" s="14" t="s">
         <v>20</v>
       </c>
       <c r="E11" s="14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F11" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G11" s="14"/>
       <c r="H11" s="14"/>

--- a/SpMVC_ShopV1/쇼핑몰 테이블 명세 양식.xlsx
+++ b/SpMVC_ShopV1/쇼핑몰 테이블 명세 양식.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="78">
   <si>
     <t>열 이름</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -284,6 +284,30 @@
   </si>
   <si>
     <t>P_IPRICE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>삭제Flag</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>문자열형</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>P_NOT_USE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHAR(1)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DEFAULT NULL</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1'이면 사용하지 않음</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -592,7 +616,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -696,6 +720,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1042,8 +1069,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:L20"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1961,16 +1988,28 @@
       <c r="B12" s="10">
         <v>8</v>
       </c>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
+      <c r="C12" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>76</v>
+      </c>
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
       <c r="K12" s="4"/>
-      <c r="L12" s="19"/>
+      <c r="L12" s="35" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="13" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="10">
